--- a/templates/POLOADER.xlsx
+++ b/templates/POLOADER.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03A7A67-62D8-4CAC-89B2-8913A75E3419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3893B219-995E-485D-8FE8-5050A360B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
-    <sheet name="AddHeader" sheetId="16" r:id="rId2"/>
-    <sheet name="AddLine" sheetId="17" r:id="rId3"/>
-    <sheet name="ChangeLine" sheetId="18" r:id="rId4"/>
-    <sheet name="ChangeBoth" sheetId="19" r:id="rId5"/>
+    <sheet name="AddBothDefault" sheetId="20" r:id="rId2"/>
+    <sheet name="AddHeader" sheetId="16" r:id="rId3"/>
+    <sheet name="AddLine" sheetId="17" r:id="rId4"/>
+    <sheet name="ChangeLine" sheetId="18" r:id="rId5"/>
+    <sheet name="ChangeBoth" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
     <t>Vendor</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t>Change Both</t>
+  </si>
+  <si>
+    <t>Gateway heights</t>
+  </si>
+  <si>
+    <t>D102,LAVida society</t>
+  </si>
+  <si>
+    <t>Royal Imperio</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Royal Tranquil</t>
   </si>
 </sst>
 </file>
@@ -505,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D721CDB-A9DB-40A7-92FA-BE728EC43FA8}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:S3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,11 +714,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DA735-ABAD-4CED-8CC9-BD6A39927EAB}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>200.55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F99DE-9B6A-4DC2-AFC0-6B79DDA70449}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -774,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>411002</v>
+        <v>411011</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -800,7 +895,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -809,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>411002</v>
+        <v>411018</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -820,12 +915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAF839-3C85-47A3-8C0F-A4F8E32EA17E}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,16 +1017,16 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2">
-        <v>411002</v>
+        <v>400056</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -940,10 +1035,10 @@
         <v>31</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>200.55</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -984,7 +1079,7 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -993,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>411002</v>
+        <v>400056</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1002,10 +1097,10 @@
         <v>31</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>
@@ -1025,12 +1120,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1DF1B-CADC-480B-9F9D-24CB1D04E075}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC89EBC-4F44-4337-884E-CD4887F2A248}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1332,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -1141,211 +1374,10 @@
         <v>31</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>200.55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>411002</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC89EBC-4F44-4337-884E-CD4887F2A248}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>411002</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>200.55</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
@@ -1404,10 +1436,10 @@
         <v>31</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>2460</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>

--- a/templates/POLOADER.xlsx
+++ b/templates/POLOADER.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3893B219-995E-485D-8FE8-5050A360B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6852337-5565-42F4-A941-386AC6F003B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
     <sheet name="AddBothDefault" sheetId="20" r:id="rId2"/>
-    <sheet name="AddHeader" sheetId="16" r:id="rId3"/>
-    <sheet name="AddLine" sheetId="17" r:id="rId4"/>
-    <sheet name="ChangeLine" sheetId="18" r:id="rId5"/>
-    <sheet name="ChangeBoth" sheetId="19" r:id="rId6"/>
+    <sheet name="AddHeaderDefault" sheetId="22" r:id="rId3"/>
+    <sheet name="AddLineDefault" sheetId="21" r:id="rId4"/>
+    <sheet name="AddlineIndirect" sheetId="23" r:id="rId5"/>
+    <sheet name="AddMultipleLines" sheetId="24" r:id="rId6"/>
+    <sheet name="AddHeader" sheetId="16" r:id="rId7"/>
+    <sheet name="AddLine" sheetId="17" r:id="rId8"/>
+    <sheet name="ChangeLine" sheetId="18" r:id="rId9"/>
+    <sheet name="ChangeBoth" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="48">
   <si>
     <t>Vendor</t>
   </si>
@@ -168,6 +172,21 @@
   </si>
   <si>
     <t>Royal Tranquil</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>NP_Automation</t>
+  </si>
+  <si>
+    <t>a351K000001fwBg</t>
+  </si>
+  <si>
+    <t>a351K000000eQyI</t>
   </si>
 </sst>
 </file>
@@ -522,13 +541,13 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -713,552 +732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DA735-ABAD-4CED-8CC9-BD6A39927EAB}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>200.55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F99DE-9B6A-4DC2-AFC0-6B79DDA70449}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>411011</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>411018</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAF839-3C85-47A3-8C0F-A4F8E32EA17E}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
-        <v>400056</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>400056</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>1000</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1DF1B-CADC-480B-9F9D-24CB1D04E075}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>2000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>250</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC89EBC-4F44-4337-884E-CD4887F2A248}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -1457,4 +931,810 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DA735-ABAD-4CED-8CC9-BD6A39927EAB}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>200.55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA76DEB8-C288-4FFF-933C-5D83C119E0BF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED5C95-0955-431B-94C2-D9DAA0C46B5F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A558F-1570-4CED-A748-7B569825A34D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>15.897</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683E8783-6B26-40B7-87D9-A6B8B4FD7B23}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F99DE-9B6A-4DC2-AFC0-6B79DDA70449}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>411011</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>411018</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAF839-3C85-47A3-8C0F-A4F8E32EA17E}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>400056</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>400056</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>1000</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1DF1B-CADC-480B-9F9D-24CB1D04E075}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/POLOADER.xlsx
+++ b/templates/POLOADER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6852337-5565-42F4-A941-386AC6F003B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBC3967-2B6E-48FD-A095-0265EB24C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
   <si>
     <t>Vendor</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>a351K000000eQyI</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTam</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,20 +1067,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED5C95-0955-431B-94C2-D9DAA0C46B5F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +1103,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1118,6 +1128,9 @@
       </c>
       <c r="G2" t="s">
         <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683E8783-6B26-40B7-87D9-A6B8B4FD7B23}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/POLOADER.xlsx
+++ b/templates/POLOADER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBC3967-2B6E-48FD-A095-0265EB24C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1171EB90-40BA-4673-B4ED-A778FEA5EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="52">
   <si>
     <t>Vendor</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>a1E1K000008NTam</t>
+  </si>
+  <si>
+    <t>AsynchronousProcessing</t>
+  </si>
+  <si>
+    <t>a3Z1K0000008Bhe</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D721CDB-A9DB-40A7-92FA-BE728EC43FA8}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +739,124 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>411002</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>200.55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>411002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>200.55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -740,10 +864,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC89EBC-4F44-4337-884E-CD4887F2A248}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +1058,130 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>411002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1500</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>411002</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>2460</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,13 +1189,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DA735-ABAD-4CED-8CC9-BD6A39927EAB}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1010,6 +1261,38 @@
         <v>200.55</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>200.55</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1020,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA76DEB8-C288-4FFF-933C-5D83C119E0BF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1343,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1070,7 +1367,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A558F-1570-4CED-A748-7B569825A34D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1488,29 @@
         <v>15.897</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15.897</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1204,7 +1524,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F99DE-9B6A-4DC2-AFC0-6B79DDA70449}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1619,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1333,8 +1653,11 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1368,8 +1691,11 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1402,6 +1728,85 @@
       </c>
       <c r="K3" t="s">
         <v>22</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>411011</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>411018</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1411,16 +1816,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAF839-3C85-47A3-8C0F-A4F8E32EA17E}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1606,6 +2012,130 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>400056</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>400056</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1616,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1DF1B-CADC-480B-9F9D-24CB1D04E075}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,6 +2277,88 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
